--- a/data/hestia/soilAmendment.xlsx
+++ b/data/hestia/soilAmendment.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -56,6 +56,22 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF0563C1"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri (Corpo)"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <vertAlign val="superscript"/>
     </font>
   </fonts>
   <fills count="8">
@@ -111,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -120,11 +136,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -153,6 +167,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -204,6 +221,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -220,15 +240,16 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="6" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -255,6 +276,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0563C1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -311,7 +339,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -642,14 +670,14 @@
   <dimension ref="A1:AQ323"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V22" activeCellId="0" sqref="V22"/>
+      <selection pane="bottomRight" activeCell="U11" activeCellId="0" sqref="U11:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.67" customWidth="1" style="17" min="1" max="1"/>
     <col width="2.66" customWidth="1" style="17" min="2" max="2"/>
@@ -663,8 +691,7 @@
     <col width="20.83" customWidth="1" style="18" min="15" max="16"/>
     <col width="20.83" customWidth="1" style="17" min="17" max="18"/>
     <col width="20.83" customWidth="1" style="18" min="19" max="20"/>
-    <col width="76.03" customWidth="1" style="17" min="21" max="21"/>
-    <col width="62.03" customWidth="1" style="17" min="22" max="22"/>
+    <col width="20.83" customWidth="1" style="17" min="21" max="21"/>
     <col width="10.17" customWidth="1" style="17" min="40" max="40"/>
   </cols>
   <sheetData>
@@ -885,7 +912,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="19">
+    <row r="2" ht="14.9" customHeight="1" s="19">
       <c r="A2" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -919,12 +946,12 @@
           <t>96% calcium carbonate mined off the coast of Bermuda. Less quickly available than ground ag lime, but it lasts 4-5 years.</t>
         </is>
       </c>
-      <c r="H2" s="17" t="inlineStr">
+      <c r="H2" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_99c81c7d </t>
         </is>
       </c>
-      <c r="I2" s="17" t="inlineStr">
+      <c r="I2" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Aragonite</t>
         </is>
@@ -989,110 +1016,114 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V2" s="18" t="n"/>
-      <c r="W2" s="28" t="inlineStr">
+      <c r="V2" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/d44b978c-a85e-49d3-9130-2e5908b22fc2</t>
+        </is>
+      </c>
+      <c r="W2" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X2" s="28" t="n">
+      <c r="X2" s="29" t="n">
         <v>0.12</v>
       </c>
-      <c r="Y2" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="Z2" s="28" t="inlineStr">
+      <c r="Y2" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="Z2" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA2" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB2" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC2" s="28" t="inlineStr">
+      <c r="AA2" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC2" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD2" s="28" t="inlineStr">
+      <c r="AD2" s="29" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="AE2" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF2" s="28" t="inlineStr">
+      <c r="AE2" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF2" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG2" s="28" t="inlineStr">
+      <c r="AG2" s="29" t="inlineStr">
         <is>
           <t>lime;burntLime;dolomiticLime</t>
         </is>
       </c>
-      <c r="AH2" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AI2" s="28" t="inlineStr">
+      <c r="AH2" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AI2" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ2" s="28">
+      <c r="AJ2" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK2" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL2" s="28" t="inlineStr">
+      <c r="AK2" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL2" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM2" s="28">
+      <c r="AM2" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN2" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO2" s="28" t="inlineStr">
+      <c r="AN2" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO2" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP2" s="28" t="inlineStr">
+      <c r="AP2" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ2" s="28" t="inlineStr">
+      <c r="AQ2" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="19">
+    <row r="3" ht="14.9" customHeight="1" s="19">
       <c r="A3" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -1131,7 +1162,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I3" s="17" t="inlineStr">
+      <c r="I3" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Biochar</t>
         </is>
@@ -1188,112 +1219,116 @@
           <t>Phillips et al. (2022) https://doi.org/10.1007/s42773-022-00137-2</t>
         </is>
       </c>
-      <c r="V3" s="18" t="n"/>
-      <c r="W3" s="28" t="inlineStr">
+      <c r="V3" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/8397cd58-0950-4853-ba0e-97ad2a279edb</t>
+        </is>
+      </c>
+      <c r="W3" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X3" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y3" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z3" s="28" t="inlineStr">
+      <c r="X3" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z3" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA3" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB3" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC3" s="28" t="inlineStr">
+      <c r="AA3" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC3" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD3" s="28" t="inlineStr">
+      <c r="AD3" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE3" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF3" s="28" t="inlineStr">
+      <c r="AE3" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF3" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG3" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH3" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI3" s="28" t="inlineStr">
+      <c r="AG3" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH3" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI3" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK3" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL3" s="28" t="inlineStr">
+      <c r="AK3" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL3" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN3" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO3" s="28" t="inlineStr">
+      <c r="AN3" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO3" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP3" s="28" t="inlineStr">
+      <c r="AP3" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ3" s="28" t="inlineStr">
+      <c r="AQ3" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="19">
+    <row r="4" ht="14.9" customHeight="1" s="19">
       <c r="A4" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -1327,12 +1362,12 @@
           <t>A generic term for a set of calcium based substances used to raise pH.</t>
         </is>
       </c>
-      <c r="H4" s="17" t="inlineStr">
+      <c r="H4" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">https://agrovoc.fao.org/browse/agrovoc/en/page/c_4342 </t>
         </is>
       </c>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Limestone</t>
         </is>
@@ -1397,114 +1432,110 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V4" s="18" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/a00b7e35-1bc7-4b73-9df8-05f3dd07ffdb</t>
-        </is>
-      </c>
-      <c r="W4" s="28" t="inlineStr">
+      <c r="V4" s="18" t="n"/>
+      <c r="W4" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X4" s="28" t="n">
+      <c r="X4" s="29" t="n">
         <v>0.12</v>
       </c>
-      <c r="Y4" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="Z4" s="29" t="inlineStr">
+      <c r="Y4" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="Z4" s="30" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA4" s="29" t="inlineStr">
+      <c r="AA4" s="30" t="inlineStr">
         <is>
           <t>lime, market for lime: 1</t>
         </is>
       </c>
-      <c r="AB4" s="29" t="inlineStr">
+      <c r="AB4" s="30" t="inlineStr">
         <is>
           <t>requires validation</t>
         </is>
       </c>
-      <c r="AC4" s="28" t="inlineStr">
+      <c r="AC4" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD4" s="28" t="inlineStr">
+      <c r="AD4" s="29" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="AE4" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF4" s="28" t="inlineStr">
+      <c r="AE4" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF4" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG4" s="28" t="inlineStr">
+      <c r="AG4" s="29" t="inlineStr">
         <is>
           <t>lime;burntLime;dolomiticLime</t>
         </is>
       </c>
-      <c r="AH4" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AI4" s="28" t="inlineStr">
+      <c r="AH4" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AI4" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ4" s="28">
+      <c r="AJ4" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK4" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL4" s="28" t="inlineStr">
+      <c r="AK4" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL4" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM4" s="28">
+      <c r="AM4" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN4" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO4" s="28" t="inlineStr">
+      <c r="AN4" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO4" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP4" s="28" t="inlineStr">
+      <c r="AP4" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ4" s="28" t="inlineStr">
+      <c r="AQ4" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="19">
+    <row r="5" ht="14.9" customHeight="1" s="19">
       <c r="A5" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -1543,7 +1574,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I5" s="17" t="inlineStr">
+      <c r="I5" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Limestone</t>
         </is>
@@ -1608,114 +1639,110 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V5" s="18" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/64cea105-f89a-4f95-ae44-84ff904a28fc</t>
-        </is>
-      </c>
-      <c r="W5" s="28" t="inlineStr">
+      <c r="V5" s="18" t="n"/>
+      <c r="W5" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X5" s="28" t="n">
+      <c r="X5" s="29" t="n">
         <v>0.12</v>
       </c>
-      <c r="Y5" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="Z5" s="29" t="inlineStr">
+      <c r="Y5" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="Z5" s="30" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA5" s="29" t="inlineStr">
+      <c r="AA5" s="30" t="inlineStr">
         <is>
           <t>limestone, crushed, washed, market for limestone, crushed, washed: 1</t>
         </is>
       </c>
-      <c r="AB5" s="29" t="inlineStr">
+      <c r="AB5" s="30" t="inlineStr">
         <is>
           <t>requires validation</t>
         </is>
       </c>
-      <c r="AC5" s="28" t="inlineStr">
+      <c r="AC5" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD5" s="28" t="inlineStr">
+      <c r="AD5" s="29" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="AE5" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF5" s="28" t="inlineStr">
+      <c r="AE5" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF5" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG5" s="28" t="inlineStr">
+      <c r="AG5" s="29" t="inlineStr">
         <is>
           <t>lime;burntLime;dolomiticLime</t>
         </is>
       </c>
-      <c r="AH5" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AI5" s="28" t="inlineStr">
+      <c r="AH5" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AI5" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ5" s="28">
+      <c r="AJ5" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK5" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL5" s="28" t="inlineStr">
+      <c r="AK5" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL5" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM5" s="28">
+      <c r="AM5" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN5" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO5" s="28" t="inlineStr">
+      <c r="AN5" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO5" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP5" s="28" t="inlineStr">
+      <c r="AP5" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ5" s="28" t="inlineStr">
+      <c r="AQ5" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="19">
+    <row r="6" ht="14.9" customHeight="1" s="19">
       <c r="A6" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -1754,7 +1781,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I6" s="17" t="inlineStr">
+      <c r="I6" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Calcium_hydroxide</t>
         </is>
@@ -1821,110 +1848,110 @@
       </c>
       <c r="V6" s="18" t="inlineStr">
         <is>
-          <t>https://glossary.ecoinvent.org/ids/d76a43a4-17da-4713-b4d7-569804af59ab</t>
-        </is>
-      </c>
-      <c r="W6" s="30" t="inlineStr">
+          <t>https://glossary.ecoinvent.org/ids/e40cb987-863a-4eb1-9e2d-f6e78320288f</t>
+        </is>
+      </c>
+      <c r="W6" s="31" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X6" s="30" t="n"/>
-      <c r="Y6" s="30" t="inlineStr">
+      <c r="X6" s="31" t="n"/>
+      <c r="Y6" s="31" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="Z6" s="29" t="inlineStr">
+      <c r="Z6" s="30" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA6" s="29" t="inlineStr">
+      <c r="AA6" s="30" t="inlineStr">
         <is>
           <t>quicklime, milled, loose, market for quicklime, milled, loose: 1</t>
         </is>
       </c>
-      <c r="AB6" s="29" t="inlineStr">
+      <c r="AB6" s="30" t="inlineStr">
         <is>
           <t>requires validation</t>
         </is>
       </c>
-      <c r="AC6" s="28" t="inlineStr">
+      <c r="AC6" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD6" s="28" t="inlineStr">
+      <c r="AD6" s="29" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="AE6" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF6" s="28" t="inlineStr">
+      <c r="AE6" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF6" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG6" s="28" t="inlineStr">
+      <c r="AG6" s="29" t="inlineStr">
         <is>
           <t>lime;burntLime;dolomiticLime</t>
         </is>
       </c>
-      <c r="AH6" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AI6" s="28" t="inlineStr">
+      <c r="AH6" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AI6" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ6" s="28">
+      <c r="AJ6" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK6" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL6" s="28" t="inlineStr">
+      <c r="AK6" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL6" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM6" s="28">
+      <c r="AM6" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN6" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO6" s="28" t="inlineStr">
+      <c r="AN6" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO6" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP6" s="28" t="inlineStr">
+      <c r="AP6" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ6" s="28" t="inlineStr">
+      <c r="AQ6" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="19">
+    <row r="7" ht="14.9" customHeight="1" s="19">
       <c r="A7" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B7,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -1963,7 +1990,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I7" s="17" t="inlineStr">
+      <c r="I7" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Calcium_oxide</t>
         </is>
@@ -2028,112 +2055,108 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V7" s="18" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/d76a43a4-17da-4713-b4d7-569804af59ab</t>
-        </is>
-      </c>
-      <c r="W7" s="30" t="inlineStr">
+      <c r="V7" s="18" t="n"/>
+      <c r="W7" s="31" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X7" s="30" t="n"/>
-      <c r="Y7" s="30" t="inlineStr">
+      <c r="X7" s="31" t="n"/>
+      <c r="Y7" s="31" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="Z7" s="29" t="inlineStr">
+      <c r="Z7" s="30" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA7" s="29" t="inlineStr">
+      <c r="AA7" s="30" t="inlineStr">
         <is>
           <t>quicklime, milled, loose, market for quicklime, milled, loose: 1</t>
         </is>
       </c>
-      <c r="AB7" s="29" t="inlineStr">
+      <c r="AB7" s="30" t="inlineStr">
         <is>
           <t>requires validation</t>
         </is>
       </c>
-      <c r="AC7" s="28" t="inlineStr">
+      <c r="AC7" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD7" s="28" t="inlineStr">
+      <c r="AD7" s="29" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="AE7" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF7" s="28" t="inlineStr">
+      <c r="AE7" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF7" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG7" s="28" t="inlineStr">
+      <c r="AG7" s="29" t="inlineStr">
         <is>
           <t>lime;burntLime;dolomiticLime</t>
         </is>
       </c>
-      <c r="AH7" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AI7" s="28" t="inlineStr">
+      <c r="AH7" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AI7" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ7" s="28">
+      <c r="AJ7" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK7" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL7" s="28" t="inlineStr">
+      <c r="AK7" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL7" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM7" s="28">
+      <c r="AM7" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN7" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO7" s="28" t="inlineStr">
+      <c r="AN7" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO7" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP7" s="28" t="inlineStr">
+      <c r="AP7" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ7" s="28" t="inlineStr">
+      <c r="AQ7" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="19">
+    <row r="8" ht="14.9" customHeight="1" s="19">
       <c r="A8" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B8,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2167,12 +2190,12 @@
           <t>Contains calcium carbonate and magnesium carbonate. Recommended for raising pH on low magnesium soils.</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_36452 </t>
         </is>
       </c>
-      <c r="I8" s="17" t="inlineStr">
+      <c r="I8" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Dolomite_(mineral)</t>
         </is>
@@ -2237,114 +2260,110 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V8" s="18" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/8e2a9448-685b-4687-910a-77418454f259</t>
-        </is>
-      </c>
-      <c r="W8" s="28" t="inlineStr">
+      <c r="V8" s="18" t="n"/>
+      <c r="W8" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X8" s="28" t="n">
+      <c r="X8" s="29" t="n">
         <v>0.13</v>
       </c>
-      <c r="Y8" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="Z8" s="29" t="inlineStr">
+      <c r="Y8" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="Z8" s="30" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA8" s="29" t="inlineStr">
+      <c r="AA8" s="30" t="inlineStr">
         <is>
           <t>dolomite, market for dolomite: 1</t>
         </is>
       </c>
-      <c r="AB8" s="29" t="inlineStr">
+      <c r="AB8" s="30" t="inlineStr">
         <is>
           <t>requires validation</t>
         </is>
       </c>
-      <c r="AC8" s="28" t="inlineStr">
+      <c r="AC8" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD8" s="28" t="inlineStr">
+      <c r="AD8" s="29" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="AE8" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF8" s="28" t="inlineStr">
+      <c r="AE8" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF8" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG8" s="28" t="inlineStr">
+      <c r="AG8" s="29" t="inlineStr">
         <is>
           <t>lime;burntLime;dolomiticLime</t>
         </is>
       </c>
-      <c r="AH8" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AI8" s="28" t="inlineStr">
+      <c r="AH8" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AI8" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ8" s="28">
+      <c r="AJ8" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK8" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL8" s="28" t="inlineStr">
+      <c r="AK8" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL8" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM8" s="28">
+      <c r="AM8" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN8" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO8" s="28" t="inlineStr">
+      <c r="AN8" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO8" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP8" s="28" t="inlineStr">
+      <c r="AP8" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ8" s="28" t="inlineStr">
+      <c r="AQ8" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="19">
+    <row r="9" ht="14.9" customHeight="1" s="19">
       <c r="A9" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2378,7 +2397,7 @@
           <t>Analyses run from 1 to 2% phosphorus and from 4 to 10% potassium. Hardwood ashes are 45% carbonate equivalent and are half as effective as lime for raising soil pH. Softwood ashes are less effective than hardwood. Ashes are too fine to improve soil structure. The recommended yearly application rate is 25-50 lbs./1,000 sq. ft. At higher rates, test soil pH yearly.</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_dccb5b08 </t>
         </is>
@@ -2448,112 +2467,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V9" s="18" t="n"/>
-      <c r="W9" s="28" t="inlineStr">
+      <c r="V9" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/a7abd72a-4d9c-4f99-abfc-3de79d425a96</t>
+        </is>
+      </c>
+      <c r="W9" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y9" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z9" s="28" t="inlineStr">
+      <c r="X9" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y9" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z9" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB9" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC9" s="28" t="inlineStr">
+      <c r="AA9" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC9" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD9" s="28" t="inlineStr">
+      <c r="AD9" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE9" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF9" s="28" t="inlineStr">
+      <c r="AE9" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF9" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG9" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH9" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI9" s="28" t="inlineStr">
+      <c r="AG9" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH9" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI9" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ9" s="28">
+      <c r="AJ9" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK9" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL9" s="28" t="inlineStr">
+      <c r="AK9" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL9" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM9" s="28">
+      <c r="AM9" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN9" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO9" s="28" t="inlineStr">
+      <c r="AN9" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO9" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP9" s="28" t="inlineStr">
+      <c r="AP9" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ9" s="28" t="inlineStr">
+      <c r="AQ9" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="19">
+    <row r="10" ht="14.9" customHeight="1" s="19">
       <c r="A10" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2587,12 +2610,12 @@
           <t>Small- to medium-sized pieces of wood formed by cutting or chipping larger pieces of wood such as trees, branches, logging residues, stumps, roots, and wood waste.</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="28" t="inlineStr">
         <is>
           <t>http://aims.fao.org/aos/agrovoc/c_8423</t>
         </is>
       </c>
-      <c r="I10" s="17" t="inlineStr">
+      <c r="I10" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Woodchips</t>
         </is>
@@ -2645,111 +2668,116 @@
           <t>Wood Energy http://www.woodenergy.ie/woodasafuel/listandvaluesofwoodfuelparameters-part3/</t>
         </is>
       </c>
-      <c r="W10" s="28" t="inlineStr">
+      <c r="V10" s="17" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/d47a4435-3089-4263-af99-8611eed2698c</t>
+        </is>
+      </c>
+      <c r="W10" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X10" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y10" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z10" s="28" t="inlineStr">
+      <c r="X10" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y10" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z10" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA10" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB10" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC10" s="28" t="inlineStr">
+      <c r="AA10" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC10" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD10" s="28" t="inlineStr">
+      <c r="AD10" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE10" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF10" s="28" t="inlineStr">
+      <c r="AE10" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF10" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG10" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH10" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI10" s="28" t="inlineStr">
+      <c r="AG10" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH10" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI10" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ10" s="28">
+      <c r="AJ10" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK10" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL10" s="28" t="inlineStr">
+      <c r="AK10" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL10" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM10" s="28">
+      <c r="AM10" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN10" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO10" s="28" t="inlineStr">
+      <c r="AN10" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO10" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP10" s="28" t="inlineStr">
+      <c r="AP10" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ10" s="28" t="inlineStr">
+      <c r="AQ10" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="19">
+    <row r="11" ht="14.9" customHeight="1" s="19">
       <c r="A11" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B11,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2788,7 +2816,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I11" s="17" t="inlineStr">
+      <c r="I11" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Aluminium_sulfate</t>
         </is>
@@ -2854,111 +2882,111 @@
         </is>
       </c>
       <c r="V11" s="18" t="n"/>
-      <c r="W11" s="28" t="inlineStr">
+      <c r="W11" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X11" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y11" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z11" s="28" t="inlineStr">
+      <c r="X11" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y11" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z11" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA11" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB11" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC11" s="28" t="inlineStr">
+      <c r="AA11" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC11" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD11" s="28" t="inlineStr">
+      <c r="AD11" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE11" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF11" s="28" t="inlineStr">
+      <c r="AE11" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF11" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG11" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH11" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI11" s="28" t="inlineStr">
+      <c r="AG11" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH11" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI11" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ11" s="28">
+      <c r="AJ11" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK11" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL11" s="28" t="inlineStr">
+      <c r="AK11" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL11" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM11" s="28">
+      <c r="AM11" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN11" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO11" s="28" t="inlineStr">
+      <c r="AN11" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO11" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP11" s="28" t="inlineStr">
+      <c r="AP11" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ11" s="28" t="inlineStr">
+      <c r="AQ11" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="19">
+    <row r="12" ht="14.9" customHeight="1" s="19">
       <c r="A12" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -2997,7 +3025,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I12" s="17" t="inlineStr">
+      <c r="I12" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Iron(II)_sulfate</t>
         </is>
@@ -3062,112 +3090,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V12" s="18" t="n"/>
-      <c r="W12" s="28" t="inlineStr">
+      <c r="V12" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/c614ee4a-ee63-4b51-b129-8a18a5e458fe</t>
+        </is>
+      </c>
+      <c r="W12" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X12" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y12" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z12" s="28" t="inlineStr">
+      <c r="X12" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y12" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z12" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA12" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC12" s="28" t="inlineStr">
+      <c r="AA12" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC12" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD12" s="28" t="inlineStr">
+      <c r="AD12" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE12" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF12" s="28" t="inlineStr">
+      <c r="AE12" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF12" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG12" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH12" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI12" s="28" t="inlineStr">
+      <c r="AG12" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH12" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI12" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ12" s="28">
+      <c r="AJ12" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK12" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL12" s="28" t="inlineStr">
+      <c r="AK12" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL12" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM12" s="28">
+      <c r="AM12" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN12" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO12" s="28" t="inlineStr">
+      <c r="AN12" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO12" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP12" s="28" t="inlineStr">
+      <c r="AP12" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ12" s="28" t="inlineStr">
+      <c r="AQ12" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="19">
+    <row r="13" ht="14.9" customHeight="1" s="19">
       <c r="A13" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B13,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -3201,12 +3233,12 @@
           <t>Lowers pH and provides sulfur. At pH above 6.0, iron sulfate lowers pH more quickly than sulfur</t>
         </is>
       </c>
-      <c r="H13" s="17" t="inlineStr">
+      <c r="H13" s="28" t="inlineStr">
         <is>
           <t>http://aims.fao.org/aos/agrovoc/c_7514</t>
         </is>
       </c>
-      <c r="I13" s="17" t="inlineStr">
+      <c r="I13" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sulfur</t>
         </is>
@@ -3271,112 +3303,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V13" s="18" t="n"/>
-      <c r="W13" s="28" t="inlineStr">
+      <c r="V13" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/fe8e025f-14c8-4abd-86df-1797ab26d3db</t>
+        </is>
+      </c>
+      <c r="W13" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X13" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y13" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z13" s="28" t="inlineStr">
+      <c r="X13" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y13" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z13" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA13" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB13" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC13" s="28" t="inlineStr">
+      <c r="AA13" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC13" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD13" s="28" t="inlineStr">
+      <c r="AD13" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE13" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF13" s="28" t="inlineStr">
+      <c r="AE13" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF13" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG13" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH13" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI13" s="28" t="inlineStr">
+      <c r="AG13" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH13" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI13" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ13" s="28">
+      <c r="AJ13" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK13" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL13" s="28" t="inlineStr">
+      <c r="AK13" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL13" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM13" s="28">
+      <c r="AM13" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN13" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO13" s="28" t="inlineStr">
+      <c r="AN13" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO13" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP13" s="28" t="inlineStr">
+      <c r="AP13" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ13" s="28" t="inlineStr">
+      <c r="AQ13" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="19">
+    <row r="14" ht="14.9" customHeight="1" s="19">
       <c r="A14" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B14,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -3410,12 +3446,12 @@
           <t>Calcium sulfate, about 20-23% calcium and 15-18% sulfur, two secondary nutrients. The calcium is fast-acting. Also recommended to tie-up excess magnesium. Will leach sodium from soils with high salt concentrations caused by de-icing materials or ocean spray. Gypsum will not raise or lower soil pH.</t>
         </is>
       </c>
-      <c r="H14" s="17" t="inlineStr">
+      <c r="H14" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_3453 </t>
         </is>
       </c>
-      <c r="I14" s="17" t="inlineStr">
+      <c r="I14" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Gypsum</t>
         </is>
@@ -3480,112 +3516,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V14" s="18" t="n"/>
-      <c r="W14" s="28" t="inlineStr">
+      <c r="V14" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/dd0cbafd-b176-4ba4-860a-25a2e0663d14</t>
+        </is>
+      </c>
+      <c r="W14" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X14" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y14" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z14" s="28" t="inlineStr">
+      <c r="X14" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y14" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z14" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA14" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB14" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC14" s="28" t="inlineStr">
+      <c r="AA14" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB14" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC14" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD14" s="28" t="inlineStr">
+      <c r="AD14" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE14" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF14" s="28" t="inlineStr">
+      <c r="AE14" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF14" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG14" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH14" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI14" s="28" t="inlineStr">
+      <c r="AG14" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH14" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI14" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ14" s="28">
+      <c r="AJ14" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK14" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL14" s="28" t="inlineStr">
+      <c r="AK14" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL14" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM14" s="28">
+      <c r="AM14" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN14" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO14" s="28" t="inlineStr">
+      <c r="AN14" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO14" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP14" s="28" t="inlineStr">
+      <c r="AP14" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ14" s="28" t="inlineStr">
+      <c r="AQ14" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="19">
+    <row r="15" ht="14.9" customHeight="1" s="19">
       <c r="A15" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B15,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -3619,7 +3659,7 @@
           <t>The stable, end product of the decomposition of soil organic matter. It holds water and nutrients, aids soil aggregation, is a source of humic acid and chelates, and contains huge microbial populations. May be purchased.</t>
         </is>
       </c>
-      <c r="H15" s="17" t="inlineStr">
+      <c r="H15" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_3693 </t>
         </is>
@@ -3689,111 +3729,111 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W15" s="28" t="inlineStr">
+      <c r="W15" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X15" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y15" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z15" s="28" t="inlineStr">
+      <c r="X15" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y15" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z15" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA15" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC15" s="28" t="inlineStr">
+      <c r="AA15" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC15" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD15" s="28" t="inlineStr">
+      <c r="AD15" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE15" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF15" s="28" t="inlineStr">
+      <c r="AE15" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF15" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG15" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH15" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI15" s="28" t="inlineStr">
+      <c r="AG15" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH15" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI15" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ15" s="28">
+      <c r="AJ15" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK15" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL15" s="28" t="inlineStr">
+      <c r="AK15" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL15" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM15" s="28">
+      <c r="AM15" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN15" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO15" s="28" t="inlineStr">
+      <c r="AN15" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO15" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP15" s="28" t="inlineStr">
+      <c r="AP15" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ15" s="28" t="inlineStr">
+      <c r="AQ15" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="19">
+    <row r="16" ht="13.8" customHeight="1" s="19">
       <c r="A16" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -3897,111 +3937,111 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W16" s="28" t="inlineStr">
+      <c r="W16" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X16" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y16" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z16" s="28" t="inlineStr">
+      <c r="X16" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y16" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z16" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA16" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB16" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC16" s="28" t="inlineStr">
+      <c r="AA16" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC16" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD16" s="28" t="inlineStr">
+      <c r="AD16" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE16" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF16" s="28" t="inlineStr">
+      <c r="AE16" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF16" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG16" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH16" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI16" s="28" t="inlineStr">
+      <c r="AG16" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH16" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI16" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ16" s="28">
+      <c r="AJ16" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK16" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL16" s="28" t="inlineStr">
+      <c r="AK16" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL16" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM16" s="28">
+      <c r="AM16" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN16" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO16" s="28" t="inlineStr">
+      <c r="AN16" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO16" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP16" s="28" t="inlineStr">
+      <c r="AP16" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ16" s="28" t="inlineStr">
+      <c r="AQ16" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1" s="19">
+    <row r="17" ht="13.8" customHeight="1" s="19">
       <c r="A17" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -4105,111 +4145,111 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W17" s="28" t="inlineStr">
+      <c r="W17" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X17" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y17" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z17" s="28" t="inlineStr">
+      <c r="X17" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y17" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z17" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA17" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB17" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC17" s="28" t="inlineStr">
+      <c r="AA17" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC17" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD17" s="28" t="inlineStr">
+      <c r="AD17" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE17" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF17" s="28" t="inlineStr">
+      <c r="AE17" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF17" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG17" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH17" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI17" s="28" t="inlineStr">
+      <c r="AG17" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH17" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI17" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ17" s="28">
+      <c r="AJ17" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK17" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL17" s="28" t="inlineStr">
+      <c r="AK17" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL17" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM17" s="28">
+      <c r="AM17" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN17" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO17" s="28" t="inlineStr">
+      <c r="AN17" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO17" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP17" s="28" t="inlineStr">
+      <c r="AP17" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ17" s="28" t="inlineStr">
+      <c r="AQ17" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="19">
+    <row r="18" ht="14.9" customHeight="1" s="19">
       <c r="A18" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -4243,12 +4283,12 @@
           <t>An important component of organic matter. It’s a very mild acid released in the decay process. Dissolves soil minerals, especially phosphorus, for plant use.</t>
         </is>
       </c>
-      <c r="H18" s="17" t="inlineStr">
+      <c r="H18" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_3685 </t>
         </is>
       </c>
-      <c r="I18" s="17" t="inlineStr">
+      <c r="I18" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Humic_substance</t>
         </is>
@@ -4314,111 +4354,111 @@
         </is>
       </c>
       <c r="V18" s="18" t="n"/>
-      <c r="W18" s="28" t="inlineStr">
+      <c r="W18" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X18" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y18" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z18" s="28" t="inlineStr">
+      <c r="X18" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y18" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z18" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA18" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB18" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC18" s="28" t="inlineStr">
+      <c r="AA18" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC18" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD18" s="28" t="inlineStr">
+      <c r="AD18" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE18" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF18" s="28" t="inlineStr">
+      <c r="AE18" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF18" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG18" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH18" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI18" s="28" t="inlineStr">
+      <c r="AG18" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH18" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI18" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ18" s="28">
+      <c r="AJ18" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK18" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL18" s="28" t="inlineStr">
+      <c r="AK18" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL18" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM18" s="28">
+      <c r="AM18" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN18" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO18" s="28" t="inlineStr">
+      <c r="AN18" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO18" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP18" s="28" t="inlineStr">
+      <c r="AP18" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ18" s="28" t="inlineStr">
+      <c r="AQ18" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="19">
+    <row r="19" ht="14.9" customHeight="1" s="19">
       <c r="A19" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B19,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -4457,7 +4497,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I19" s="17" t="inlineStr">
+      <c r="I19" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sphagnum</t>
         </is>
@@ -4522,106 +4562,110 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V19" s="18" t="n"/>
-      <c r="W19" s="28" t="inlineStr">
+      <c r="V19" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/a7e1dd79-7f97-4f06-86f7-8965e13db3db</t>
+        </is>
+      </c>
+      <c r="W19" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X19" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y19" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z19" s="28" t="inlineStr">
+      <c r="X19" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y19" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z19" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA19" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB19" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC19" s="28" t="inlineStr">
+      <c r="AA19" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB19" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC19" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD19" s="28" t="inlineStr">
+      <c r="AD19" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE19" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF19" s="28" t="inlineStr">
+      <c r="AE19" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF19" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG19" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH19" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI19" s="28" t="inlineStr">
+      <c r="AG19" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH19" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI19" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ19" s="28">
+      <c r="AJ19" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK19" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL19" s="28" t="inlineStr">
+      <c r="AK19" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL19" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM19" s="28">
+      <c r="AM19" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN19" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO19" s="28" t="inlineStr">
+      <c r="AN19" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO19" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP19" s="28" t="inlineStr">
+      <c r="AP19" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ19" s="28" t="inlineStr">
+      <c r="AQ19" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -4719,106 +4763,110 @@
           <t>Neiva et al. (2018) https://doi.org/10.1371/journal.pone.0208270</t>
         </is>
       </c>
-      <c r="V20" s="18" t="n"/>
-      <c r="W20" s="28" t="inlineStr">
+      <c r="V20" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/6d2c81d0-5546-4bc3-a4f4-3e88606d539d</t>
+        </is>
+      </c>
+      <c r="W20" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X20" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z20" s="28" t="inlineStr">
+      <c r="X20" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z20" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA20" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB20" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC20" s="28" t="inlineStr">
+      <c r="AA20" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB20" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC20" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD20" s="28" t="inlineStr">
+      <c r="AD20" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE20" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF20" s="28" t="inlineStr">
+      <c r="AE20" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF20" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG20" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH20" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI20" s="28" t="inlineStr">
+      <c r="AG20" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH20" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI20" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ20" s="28">
+      <c r="AJ20" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK20" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL20" s="28" t="inlineStr">
+      <c r="AK20" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL20" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM20" s="28">
+      <c r="AM20" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN20" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO20" s="28" t="inlineStr">
+      <c r="AN20" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO20" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP20" s="28" t="inlineStr">
+      <c r="AP20" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ20" s="28" t="inlineStr">
+      <c r="AQ20" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -4858,12 +4906,12 @@
           <t>Sand (defined as rock and mineral particles between 0.0625 and 2 mm), sometimes used to improve water drainage and aeration of clay soils.</t>
         </is>
       </c>
-      <c r="H21" s="17" t="inlineStr">
+      <c r="H21" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_6779 </t>
         </is>
       </c>
-      <c r="I21" s="17" t="inlineStr">
+      <c r="I21" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sand</t>
         </is>
@@ -4928,112 +4976,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V21" s="18" t="n"/>
-      <c r="W21" s="28" t="inlineStr">
+      <c r="V21" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/f51d7ccf-0bee-430d-98a3-8334adbe39fc</t>
+        </is>
+      </c>
+      <c r="W21" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X21" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y21" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z21" s="28" t="inlineStr">
+      <c r="X21" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y21" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z21" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA21" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB21" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC21" s="28" t="inlineStr">
+      <c r="AA21" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB21" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC21" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD21" s="28" t="inlineStr">
+      <c r="AD21" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE21" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF21" s="28" t="inlineStr">
+      <c r="AE21" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF21" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG21" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH21" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI21" s="28" t="inlineStr">
+      <c r="AG21" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH21" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI21" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ21" s="28">
+      <c r="AJ21" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK21" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL21" s="28" t="inlineStr">
+      <c r="AK21" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL21" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM21" s="28">
+      <c r="AM21" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN21" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO21" s="28" t="inlineStr">
+      <c r="AN21" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO21" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP21" s="28" t="inlineStr">
+      <c r="AP21" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ21" s="28" t="inlineStr">
+      <c r="AQ21" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="41.25" customHeight="1" s="19">
+    <row r="22" ht="41.75" customHeight="1" s="19">
       <c r="A22" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B22,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -5067,12 +5119,12 @@
           <t>Shavings from wood, used for mulching beds (e.g blueberries).</t>
         </is>
       </c>
-      <c r="H22" s="17" t="inlineStr">
+      <c r="H22" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_6827 </t>
         </is>
       </c>
-      <c r="I22" s="17" t="inlineStr">
+      <c r="I22" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sawdust</t>
         </is>
@@ -5088,7 +5140,7 @@
       <c r="L22" s="18" t="n">
         <v>0.455</v>
       </c>
-      <c r="M22" s="31" t="inlineStr">
+      <c r="M22" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">Horisawa et al. (1999) https://doi.org/10.1007/BF00538959
 </t>
@@ -5105,7 +5157,7 @@
       <c r="P22" s="18" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q22" s="31" t="inlineStr">
+      <c r="Q22" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">Horisawa et al. (1999) https://doi.org/10.1007/BF00538959
 </t>
@@ -5122,112 +5174,116 @@
       <c r="T22" s="18" t="n">
         <v>0.459619407771255</v>
       </c>
-      <c r="U22" s="31" t="inlineStr">
+      <c r="U22" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve">Horisawa et al. (1999) https://doi.org/10.1007/BF00538959
 </t>
         </is>
       </c>
-      <c r="V22" s="18" t="n"/>
-      <c r="W22" s="28" t="inlineStr">
+      <c r="V22" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/a514c9f2-0d4d-4ce2-809b-de4c29e74709</t>
+        </is>
+      </c>
+      <c r="W22" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X22" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y22" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z22" s="28" t="inlineStr">
+      <c r="X22" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y22" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z22" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA22" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB22" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC22" s="28" t="inlineStr">
+      <c r="AA22" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB22" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC22" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD22" s="28" t="inlineStr">
+      <c r="AD22" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE22" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF22" s="28" t="inlineStr">
+      <c r="AE22" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF22" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG22" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH22" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI22" s="28" t="inlineStr">
+      <c r="AG22" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH22" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI22" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ22" s="28">
+      <c r="AJ22" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK22" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL22" s="28" t="inlineStr">
+      <c r="AK22" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL22" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM22" s="28">
+      <c r="AM22" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN22" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO22" s="28" t="inlineStr">
+      <c r="AN22" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO22" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP22" s="28" t="inlineStr">
+      <c r="AP22" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ22" s="28" t="inlineStr">
+      <c r="AQ22" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -5267,12 +5323,12 @@
           <t>A generic term for a typically high organic matter content soil, usually the upper 13-25cm, which can be purchased and added as an conditioner to fields.</t>
         </is>
       </c>
-      <c r="H23" s="17" t="inlineStr">
+      <c r="H23" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_7812 </t>
         </is>
       </c>
-      <c r="I23" s="17" t="inlineStr">
+      <c r="I23" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Topsoil</t>
         </is>
@@ -5338,111 +5394,111 @@
         </is>
       </c>
       <c r="V23" s="18" t="n"/>
-      <c r="W23" s="28" t="inlineStr">
+      <c r="W23" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X23" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y23" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z23" s="28" t="inlineStr">
+      <c r="X23" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y23" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z23" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA23" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB23" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC23" s="28" t="inlineStr">
+      <c r="AA23" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB23" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC23" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD23" s="28" t="inlineStr">
+      <c r="AD23" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE23" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF23" s="28" t="inlineStr">
+      <c r="AE23" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF23" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG23" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH23" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI23" s="28" t="inlineStr">
+      <c r="AG23" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH23" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI23" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ23" s="28">
+      <c r="AJ23" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK23" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL23" s="28" t="inlineStr">
+      <c r="AK23" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL23" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM23" s="28">
+      <c r="AM23" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN23" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO23" s="28" t="inlineStr">
+      <c r="AN23" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO23" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP23" s="28" t="inlineStr">
+      <c r="AP23" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ23" s="28" t="inlineStr">
+      <c r="AQ23" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1" s="19">
+    <row r="24" ht="13.8" customHeight="1" s="19">
       <c r="A24" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B24,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -5547,111 +5603,111 @@
         </is>
       </c>
       <c r="V24" s="18" t="n"/>
-      <c r="W24" s="28" t="inlineStr">
+      <c r="W24" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X24" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y24" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z24" s="28" t="inlineStr">
+      <c r="X24" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y24" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z24" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA24" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC24" s="28" t="inlineStr">
+      <c r="AA24" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC24" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD24" s="28" t="inlineStr">
+      <c r="AD24" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE24" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF24" s="28" t="inlineStr">
+      <c r="AE24" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF24" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG24" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH24" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI24" s="28" t="inlineStr">
+      <c r="AG24" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH24" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI24" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ24" s="28">
+      <c r="AJ24" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK24" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL24" s="28" t="inlineStr">
+      <c r="AK24" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL24" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM24" s="28">
+      <c r="AM24" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN24" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO24" s="28" t="inlineStr">
+      <c r="AN24" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO24" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP24" s="28" t="inlineStr">
+      <c r="AP24" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ24" s="28" t="inlineStr">
+      <c r="AQ24" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1" s="19">
+    <row r="25" ht="13.8" customHeight="1" s="19">
       <c r="A25" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -5756,105 +5812,105 @@
         </is>
       </c>
       <c r="V25" s="18" t="n"/>
-      <c r="W25" s="28" t="inlineStr">
+      <c r="W25" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X25" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y25" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z25" s="28" t="inlineStr">
+      <c r="X25" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y25" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z25" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA25" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB25" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC25" s="28" t="inlineStr">
+      <c r="AA25" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB25" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC25" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD25" s="28" t="inlineStr">
+      <c r="AD25" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE25" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF25" s="28" t="inlineStr">
+      <c r="AE25" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF25" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG25" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH25" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI25" s="28" t="inlineStr">
+      <c r="AG25" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH25" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI25" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ25" s="28">
+      <c r="AJ25" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK25" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL25" s="28" t="inlineStr">
+      <c r="AK25" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL25" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM25" s="28">
+      <c r="AM25" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN25" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO25" s="28" t="inlineStr">
+      <c r="AN25" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO25" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP25" s="28" t="inlineStr">
+      <c r="AP25" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ25" s="28" t="inlineStr">
+      <c r="AQ25" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -5894,7 +5950,7 @@
           <t>A formulation containing one or more species of bacteria beneficial to the soil.</t>
         </is>
       </c>
-      <c r="H26" s="17" t="inlineStr">
+      <c r="H26" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_3879 </t>
         </is>
@@ -5965,105 +6021,105 @@
         </is>
       </c>
       <c r="V26" s="18" t="n"/>
-      <c r="W26" s="28" t="inlineStr">
+      <c r="W26" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X26" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y26" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z26" s="28" t="inlineStr">
+      <c r="X26" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y26" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z26" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA26" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB26" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC26" s="28" t="inlineStr">
+      <c r="AA26" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB26" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC26" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD26" s="28" t="inlineStr">
+      <c r="AD26" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE26" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF26" s="28" t="inlineStr">
+      <c r="AE26" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF26" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG26" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH26" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI26" s="28" t="inlineStr">
+      <c r="AG26" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH26" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI26" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ26" s="28">
+      <c r="AJ26" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK26" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL26" s="28" t="inlineStr">
+      <c r="AK26" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL26" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM26" s="28">
+      <c r="AM26" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN26" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO26" s="28" t="inlineStr">
+      <c r="AN26" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO26" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP26" s="28" t="inlineStr">
+      <c r="AP26" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ26" s="28" t="inlineStr">
+      <c r="AQ26" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -6174,111 +6230,111 @@
         </is>
       </c>
       <c r="V27" s="18" t="n"/>
-      <c r="W27" s="28" t="inlineStr">
+      <c r="W27" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X27" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y27" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z27" s="28" t="inlineStr">
+      <c r="X27" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y27" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z27" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA27" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB27" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC27" s="28" t="inlineStr">
+      <c r="AA27" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC27" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD27" s="28" t="inlineStr">
+      <c r="AD27" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE27" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF27" s="28" t="inlineStr">
+      <c r="AE27" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF27" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG27" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH27" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI27" s="28" t="inlineStr">
+      <c r="AG27" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH27" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI27" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ27" s="28">
+      <c r="AJ27" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK27" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL27" s="28" t="inlineStr">
+      <c r="AK27" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL27" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM27" s="28">
+      <c r="AM27" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN27" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO27" s="28" t="inlineStr">
+      <c r="AN27" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO27" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP27" s="28" t="inlineStr">
+      <c r="AP27" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ27" s="28" t="inlineStr">
+      <c r="AQ27" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="19">
+    <row r="28" ht="14.9" customHeight="1" s="19">
       <c r="A28" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B28,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -6317,7 +6373,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I28" s="17" t="inlineStr">
+      <c r="I28" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Rhizobacteria</t>
         </is>
@@ -6383,111 +6439,111 @@
         </is>
       </c>
       <c r="V28" s="18" t="n"/>
-      <c r="W28" s="28" t="inlineStr">
+      <c r="W28" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X28" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y28" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z28" s="28" t="inlineStr">
+      <c r="X28" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y28" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z28" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA28" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB28" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC28" s="28" t="inlineStr">
+      <c r="AA28" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB28" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC28" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD28" s="28" t="inlineStr">
+      <c r="AD28" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE28" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF28" s="28" t="inlineStr">
+      <c r="AE28" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF28" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG28" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH28" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI28" s="28" t="inlineStr">
+      <c r="AG28" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH28" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI28" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ28" s="28">
+      <c r="AJ28" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK28" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL28" s="28" t="inlineStr">
+      <c r="AK28" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL28" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM28" s="28">
+      <c r="AM28" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN28" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO28" s="28" t="inlineStr">
+      <c r="AN28" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO28" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP28" s="28" t="inlineStr">
+      <c r="AP28" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ28" s="28" t="inlineStr">
+      <c r="AQ28" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="19">
+    <row r="29" ht="14.9" customHeight="1" s="19">
       <c r="A29" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B29,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -6521,12 +6577,12 @@
           <t>Beneficial fungi which grow symbiotically on or in roots and extend the root structure by sending out tiny filaments to forage for nutrients. Some crops, like blueberry, rely heavily on mycorrhizae for nutrient uptake.</t>
         </is>
       </c>
-      <c r="H29" s="17" t="inlineStr">
+      <c r="H29" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_5023 </t>
         </is>
       </c>
-      <c r="I29" s="17" t="inlineStr">
+      <c r="I29" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Mycorrhiza</t>
         </is>
@@ -6592,111 +6648,111 @@
         </is>
       </c>
       <c r="V29" s="18" t="n"/>
-      <c r="W29" s="28" t="inlineStr">
+      <c r="W29" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X29" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y29" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z29" s="28" t="inlineStr">
+      <c r="X29" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y29" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z29" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA29" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB29" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC29" s="28" t="inlineStr">
+      <c r="AA29" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC29" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD29" s="28" t="inlineStr">
+      <c r="AD29" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE29" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF29" s="28" t="inlineStr">
+      <c r="AE29" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF29" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG29" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH29" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI29" s="28" t="inlineStr">
+      <c r="AG29" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH29" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI29" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ29" s="28">
+      <c r="AJ29" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK29" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL29" s="28" t="inlineStr">
+      <c r="AK29" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL29" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM29" s="28">
+      <c r="AM29" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN29" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO29" s="28" t="inlineStr">
+      <c r="AN29" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO29" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP29" s="28" t="inlineStr">
+      <c r="AP29" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ29" s="28" t="inlineStr">
+      <c r="AQ29" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="19">
+    <row r="30" ht="14.9" customHeight="1" s="19">
       <c r="A30" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B30,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -6730,12 +6786,12 @@
           <t>A very lightweight heat-expanded volcanic mineral which provides drainage and oxygen space in soils. Does not hold nutrients or water but is especially effective for increasing the porosity of potting media.</t>
         </is>
       </c>
-      <c r="H30" s="17" t="inlineStr">
+      <c r="H30" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_24125 </t>
         </is>
       </c>
-      <c r="I30" s="17" t="inlineStr">
+      <c r="I30" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Perlite</t>
         </is>
@@ -6800,112 +6856,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V30" s="18" t="n"/>
-      <c r="W30" s="28" t="inlineStr">
+      <c r="V30" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/1f1eca90-d90c-40ea-bcbb-1c821e3bfa0d</t>
+        </is>
+      </c>
+      <c r="W30" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X30" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y30" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z30" s="28" t="inlineStr">
+      <c r="X30" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y30" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z30" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA30" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB30" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC30" s="28" t="inlineStr">
+      <c r="AA30" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB30" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC30" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD30" s="28" t="inlineStr">
+      <c r="AD30" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE30" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF30" s="28" t="inlineStr">
+      <c r="AE30" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF30" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG30" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH30" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI30" s="28" t="inlineStr">
+      <c r="AG30" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH30" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI30" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ30" s="28">
+      <c r="AJ30" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK30" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL30" s="28" t="inlineStr">
+      <c r="AK30" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL30" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM30" s="28">
+      <c r="AM30" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN30" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO30" s="28" t="inlineStr">
+      <c r="AN30" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO30" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP30" s="28" t="inlineStr">
+      <c r="AP30" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ30" s="28" t="inlineStr">
+      <c r="AQ30" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1" s="19">
+    <row r="31" ht="13.8" customHeight="1" s="19">
       <c r="A31" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B31,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -7010,111 +7070,111 @@
         </is>
       </c>
       <c r="V31" s="18" t="n"/>
-      <c r="W31" s="28" t="inlineStr">
+      <c r="W31" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X31" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y31" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z31" s="28" t="inlineStr">
+      <c r="X31" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y31" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z31" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA31" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB31" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC31" s="28" t="inlineStr">
+      <c r="AA31" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB31" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC31" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD31" s="28" t="inlineStr">
+      <c r="AD31" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE31" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF31" s="28" t="inlineStr">
+      <c r="AE31" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF31" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG31" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH31" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI31" s="28" t="inlineStr">
+      <c r="AG31" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH31" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI31" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ31" s="28">
+      <c r="AJ31" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK31" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL31" s="28" t="inlineStr">
+      <c r="AK31" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL31" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM31" s="28">
+      <c r="AM31" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN31" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO31" s="28" t="inlineStr">
+      <c r="AN31" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO31" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP31" s="28" t="inlineStr">
+      <c r="AP31" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ31" s="28" t="inlineStr">
+      <c r="AQ31" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1" s="19">
+    <row r="32" ht="13.8" customHeight="1" s="19">
       <c r="A32" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B32,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -7219,111 +7279,111 @@
         </is>
       </c>
       <c r="V32" s="18" t="n"/>
-      <c r="W32" s="28" t="inlineStr">
+      <c r="W32" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X32" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y32" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z32" s="28" t="inlineStr">
+      <c r="X32" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y32" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z32" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA32" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB32" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC32" s="28" t="inlineStr">
+      <c r="AA32" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB32" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC32" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD32" s="28" t="inlineStr">
+      <c r="AD32" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE32" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF32" s="28" t="inlineStr">
+      <c r="AE32" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF32" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG32" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH32" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI32" s="28" t="inlineStr">
+      <c r="AG32" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH32" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI32" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ32" s="28">
+      <c r="AJ32" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK32" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL32" s="28" t="inlineStr">
+      <c r="AK32" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL32" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM32" s="28">
+      <c r="AM32" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN32" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO32" s="28" t="inlineStr">
+      <c r="AN32" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO32" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP32" s="28" t="inlineStr">
+      <c r="AP32" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ32" s="28" t="inlineStr">
+      <c r="AQ32" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="19">
+    <row r="33" ht="14.9" customHeight="1" s="19">
       <c r="A33" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B33,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -7357,12 +7417,12 @@
           <t>Mica-type mineral heated in high temperature furnaces to form sterile, expanded, fan-like particles with many air spaces which promote aeration and water movement. Absorbs and holds nutrients and water (unlike perlite). Also rich in trace elements.</t>
         </is>
       </c>
-      <c r="H33" s="17" t="inlineStr">
+      <c r="H33" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_8194 </t>
         </is>
       </c>
-      <c r="I33" s="17" t="inlineStr">
+      <c r="I33" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Vermiculite</t>
         </is>
@@ -7427,112 +7487,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V33" s="18" t="n"/>
-      <c r="W33" s="28" t="inlineStr">
+      <c r="V33" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/4aa9233e-4b67-4f68-8e65-ec273fd1d052</t>
+        </is>
+      </c>
+      <c r="W33" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X33" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y33" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z33" s="28" t="inlineStr">
+      <c r="X33" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y33" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z33" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA33" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB33" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC33" s="28" t="inlineStr">
+      <c r="AA33" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB33" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC33" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD33" s="28" t="inlineStr">
+      <c r="AD33" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE33" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF33" s="28" t="inlineStr">
+      <c r="AE33" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF33" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG33" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH33" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI33" s="28" t="inlineStr">
+      <c r="AG33" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH33" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI33" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ33" s="28">
+      <c r="AJ33" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK33" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL33" s="28" t="inlineStr">
+      <c r="AK33" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL33" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM33" s="28">
+      <c r="AM33" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN33" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO33" s="28" t="inlineStr">
+      <c r="AN33" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO33" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP33" s="28" t="inlineStr">
+      <c r="AP33" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ33" s="28" t="inlineStr">
+      <c r="AQ33" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="19">
+    <row r="34" ht="14.9" customHeight="1" s="19">
       <c r="A34" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B34,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -7566,12 +7630,12 @@
           <t>Zinc, usually chelated zinc, for addition to crops.</t>
         </is>
       </c>
-      <c r="H34" s="17" t="inlineStr">
+      <c r="H34" s="28" t="inlineStr">
         <is>
           <t>http://aims.fao.org/aos/agrovoc/c_8517</t>
         </is>
       </c>
-      <c r="I34" s="17" t="inlineStr">
+      <c r="I34" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Zinc</t>
         </is>
@@ -7636,112 +7700,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V34" s="18" t="n"/>
-      <c r="W34" s="28" t="inlineStr">
+      <c r="V34" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/dae5718b-c433-4bd9-9deb-eb3ffc2c889e</t>
+        </is>
+      </c>
+      <c r="W34" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X34" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y34" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z34" s="28" t="inlineStr">
+      <c r="X34" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y34" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z34" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA34" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB34" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC34" s="28" t="inlineStr">
+      <c r="AA34" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB34" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC34" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD34" s="28" t="inlineStr">
+      <c r="AD34" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE34" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF34" s="28" t="inlineStr">
+      <c r="AE34" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF34" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG34" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH34" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI34" s="28" t="inlineStr">
+      <c r="AG34" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH34" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI34" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ34" s="28">
+      <c r="AJ34" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK34" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL34" s="28" t="inlineStr">
+      <c r="AK34" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL34" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM34" s="28">
+      <c r="AM34" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN34" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO34" s="28" t="inlineStr">
+      <c r="AN34" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO34" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP34" s="28" t="inlineStr">
+      <c r="AP34" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ34" s="28" t="inlineStr">
+      <c r="AQ34" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="19">
+    <row r="35" ht="14.9" customHeight="1" s="19">
       <c r="A35" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B35,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -7775,12 +7843,12 @@
           <t>A gram-negative free-living nitrogen-fixing rhizosphere bacteria, expressed in terms of total colony-forming units (CFU).</t>
         </is>
       </c>
-      <c r="H35" s="17" t="inlineStr">
+      <c r="H35" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_15939 </t>
         </is>
       </c>
-      <c r="I35" s="17" t="inlineStr">
+      <c r="I35" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Azospirillum</t>
         </is>
@@ -7846,105 +7914,105 @@
         </is>
       </c>
       <c r="V35" s="18" t="n"/>
-      <c r="W35" s="28" t="inlineStr">
+      <c r="W35" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X35" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y35" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z35" s="28" t="inlineStr">
+      <c r="X35" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y35" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z35" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA35" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB35" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC35" s="28" t="inlineStr">
+      <c r="AA35" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB35" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC35" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD35" s="28" t="inlineStr">
+      <c r="AD35" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE35" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF35" s="28" t="inlineStr">
+      <c r="AE35" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF35" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG35" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH35" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI35" s="28" t="inlineStr">
+      <c r="AG35" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH35" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI35" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ35" s="28">
+      <c r="AJ35" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK35" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL35" s="28" t="inlineStr">
+      <c r="AK35" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL35" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM35" s="28">
+      <c r="AM35" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN35" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO35" s="28" t="inlineStr">
+      <c r="AN35" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO35" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP35" s="28" t="inlineStr">
+      <c r="AP35" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ35" s="28" t="inlineStr">
+      <c r="AQ35" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -8055,111 +8123,111 @@
         </is>
       </c>
       <c r="V36" s="18" t="n"/>
-      <c r="W36" s="28" t="inlineStr">
+      <c r="W36" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X36" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y36" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z36" s="28" t="inlineStr">
+      <c r="X36" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y36" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z36" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA36" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB36" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC36" s="28" t="inlineStr">
+      <c r="AA36" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB36" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC36" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD36" s="28" t="inlineStr">
+      <c r="AD36" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE36" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF36" s="28" t="inlineStr">
+      <c r="AE36" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF36" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG36" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH36" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI36" s="28" t="inlineStr">
+      <c r="AG36" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH36" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI36" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ36" s="28">
+      <c r="AJ36" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK36" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL36" s="28" t="inlineStr">
+      <c r="AK36" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL36" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM36" s="28">
+      <c r="AM36" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN36" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO36" s="28" t="inlineStr">
+      <c r="AN36" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO36" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP36" s="28" t="inlineStr">
+      <c r="AP36" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ36" s="28" t="inlineStr">
+      <c r="AQ36" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="19">
+    <row r="37" ht="14.9" customHeight="1" s="19">
       <c r="A37" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B37,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -8193,12 +8261,12 @@
           <t>A plant growth-promoting rhizobacteria (PGPR), expressed in terms of colony-forming units (CFU).</t>
         </is>
       </c>
-      <c r="H37" s="17" t="inlineStr">
+      <c r="H37" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_26647 </t>
         </is>
       </c>
-      <c r="I37" s="17" t="inlineStr">
+      <c r="I37" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Pseudomonas_fluorescens</t>
         </is>
@@ -8264,111 +8332,111 @@
         </is>
       </c>
       <c r="V37" s="18" t="n"/>
-      <c r="W37" s="28" t="inlineStr">
+      <c r="W37" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X37" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y37" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z37" s="28" t="inlineStr">
+      <c r="X37" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y37" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z37" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA37" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB37" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC37" s="28" t="inlineStr">
+      <c r="AA37" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB37" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC37" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD37" s="28" t="inlineStr">
+      <c r="AD37" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE37" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF37" s="28" t="inlineStr">
+      <c r="AE37" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF37" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG37" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH37" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI37" s="28" t="inlineStr">
+      <c r="AG37" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH37" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI37" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ37" s="28">
+      <c r="AJ37" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK37" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL37" s="28" t="inlineStr">
+      <c r="AK37" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL37" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM37" s="28">
+      <c r="AM37" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN37" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO37" s="28" t="inlineStr">
+      <c r="AN37" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO37" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP37" s="28" t="inlineStr">
+      <c r="AP37" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ37" s="28" t="inlineStr">
+      <c r="AQ37" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="19">
+    <row r="38" ht="14.9" customHeight="1" s="19">
       <c r="A38" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B38,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -8402,12 +8470,12 @@
           <t>A plant growth-promoting rhizobacteria (PGPR), expressed in terms of colony-forming units (CFU).</t>
         </is>
       </c>
-      <c r="H38" s="17" t="inlineStr">
+      <c r="H38" s="28" t="inlineStr">
         <is>
           <t>https://agrovoc.fao.org/browse/agrovoc/en/page/c_26648</t>
         </is>
       </c>
-      <c r="I38" s="17" t="inlineStr">
+      <c r="I38" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Pseudomonas_putida</t>
         </is>
@@ -8473,111 +8541,111 @@
         </is>
       </c>
       <c r="V38" s="18" t="n"/>
-      <c r="W38" s="28" t="inlineStr">
+      <c r="W38" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X38" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y38" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z38" s="28" t="inlineStr">
+      <c r="X38" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y38" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z38" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA38" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB38" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC38" s="28" t="inlineStr">
+      <c r="AA38" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB38" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC38" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD38" s="28" t="inlineStr">
+      <c r="AD38" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE38" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF38" s="28" t="inlineStr">
+      <c r="AE38" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF38" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG38" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH38" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI38" s="28" t="inlineStr">
+      <c r="AG38" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH38" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI38" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ38" s="28">
+      <c r="AJ38" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK38" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL38" s="28" t="inlineStr">
+      <c r="AK38" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL38" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM38" s="28">
+      <c r="AM38" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN38" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO38" s="28" t="inlineStr">
+      <c r="AN38" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO38" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP38" s="28" t="inlineStr">
+      <c r="AP38" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ38" s="28" t="inlineStr">
+      <c r="AQ38" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="19">
+    <row r="39" ht="14.9" customHeight="1" s="19">
       <c r="A39" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B39,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -8611,12 +8679,12 @@
           <t>Fulvic acids are a family of organic acids, natural compounds, and components of the humus (which is a fraction of soil organic matter).</t>
         </is>
       </c>
-      <c r="H39" s="17" t="inlineStr">
+      <c r="H39" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_15972 </t>
         </is>
       </c>
-      <c r="I39" s="17" t="inlineStr">
+      <c r="I39" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Humic_substance</t>
         </is>
@@ -8682,105 +8750,105 @@
         </is>
       </c>
       <c r="V39" s="18" t="n"/>
-      <c r="W39" s="28" t="inlineStr">
+      <c r="W39" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y39" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z39" s="28" t="inlineStr">
+      <c r="X39" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y39" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z39" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB39" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC39" s="28" t="inlineStr">
+      <c r="AA39" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB39" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC39" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD39" s="28" t="inlineStr">
+      <c r="AD39" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE39" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF39" s="28" t="inlineStr">
+      <c r="AE39" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF39" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG39" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH39" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI39" s="28" t="inlineStr">
+      <c r="AG39" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH39" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI39" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ39" s="28">
+      <c r="AJ39" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK39" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL39" s="28" t="inlineStr">
+      <c r="AK39" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL39" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM39" s="28">
+      <c r="AM39" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN39" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO39" s="28" t="inlineStr">
+      <c r="AN39" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO39" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP39" s="28" t="inlineStr">
+      <c r="AP39" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ39" s="28" t="inlineStr">
+      <c r="AQ39" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -8825,7 +8893,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I40" s="17" t="inlineStr">
+      <c r="I40" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Potassium_humate</t>
         </is>
@@ -8891,111 +8959,111 @@
         </is>
       </c>
       <c r="V40" s="18" t="n"/>
-      <c r="W40" s="28" t="inlineStr">
+      <c r="W40" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X40" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y40" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z40" s="28" t="inlineStr">
+      <c r="X40" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y40" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z40" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA40" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB40" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC40" s="28" t="inlineStr">
+      <c r="AA40" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB40" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC40" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD40" s="28" t="inlineStr">
+      <c r="AD40" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE40" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF40" s="28" t="inlineStr">
+      <c r="AE40" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF40" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG40" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH40" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI40" s="28" t="inlineStr">
+      <c r="AG40" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH40" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI40" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ40" s="28">
+      <c r="AJ40" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK40" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL40" s="28" t="inlineStr">
+      <c r="AK40" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL40" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM40" s="28">
+      <c r="AM40" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN40" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO40" s="28" t="inlineStr">
+      <c r="AN40" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO40" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP40" s="28" t="inlineStr">
+      <c r="AP40" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ40" s="28" t="inlineStr">
+      <c r="AQ40" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="19">
+    <row r="41" ht="14.9" customHeight="1" s="19">
       <c r="A41" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B41,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -9034,7 +9102,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I41" s="17" t="inlineStr">
+      <c r="I41" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Kieserite</t>
         </is>
@@ -9100,111 +9168,111 @@
         </is>
       </c>
       <c r="V41" s="18" t="n"/>
-      <c r="W41" s="28" t="inlineStr">
+      <c r="W41" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X41" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y41" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z41" s="28" t="inlineStr">
+      <c r="X41" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y41" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z41" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA41" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB41" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC41" s="28" t="inlineStr">
+      <c r="AA41" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB41" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC41" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD41" s="28" t="inlineStr">
+      <c r="AD41" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE41" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF41" s="28" t="inlineStr">
+      <c r="AE41" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF41" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG41" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH41" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI41" s="28" t="inlineStr">
+      <c r="AG41" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH41" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI41" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ41" s="28">
+      <c r="AJ41" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK41" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL41" s="28" t="inlineStr">
+      <c r="AK41" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL41" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM41" s="28">
+      <c r="AM41" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN41" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO41" s="28" t="inlineStr">
+      <c r="AN41" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO41" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP41" s="28" t="inlineStr">
+      <c r="AP41" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ41" s="28" t="inlineStr">
+      <c r="AQ41" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="19">
+    <row r="42" ht="14.9" customHeight="1" s="19">
       <c r="A42" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B42,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -9243,7 +9311,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I42" s="17" t="inlineStr">
+      <c r="I42" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Magnesium_sulfate#Heptahydrate_(Epsom_salt)</t>
         </is>
@@ -9309,111 +9377,111 @@
         </is>
       </c>
       <c r="V42" s="18" t="n"/>
-      <c r="W42" s="28" t="inlineStr">
+      <c r="W42" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X42" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y42" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z42" s="28" t="inlineStr">
+      <c r="X42" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y42" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z42" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA42" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB42" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC42" s="28" t="inlineStr">
+      <c r="AA42" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB42" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC42" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD42" s="28" t="inlineStr">
+      <c r="AD42" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE42" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF42" s="28" t="inlineStr">
+      <c r="AE42" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF42" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG42" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH42" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI42" s="28" t="inlineStr">
+      <c r="AG42" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH42" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI42" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ42" s="28">
+      <c r="AJ42" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK42" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL42" s="28" t="inlineStr">
+      <c r="AK42" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL42" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM42" s="28">
+      <c r="AM42" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN42" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO42" s="28" t="inlineStr">
+      <c r="AN42" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO42" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP42" s="28" t="inlineStr">
+      <c r="AP42" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ42" s="28" t="inlineStr">
+      <c r="AQ42" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="19">
+    <row r="43" ht="14.9" customHeight="1" s="19">
       <c r="A43" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B43,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -9447,12 +9515,12 @@
           <t xml:space="preserve">Boron, applied to boron-deficient soils or directly to crops as a foliar spray. Adequate levels are necessary for proper absorption of macronutrients and for maintaining the integrity of plant cell walls. </t>
         </is>
       </c>
-      <c r="H43" s="17" t="inlineStr">
+      <c r="H43" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_1018 </t>
         </is>
       </c>
-      <c r="I43" s="17" t="inlineStr">
+      <c r="I43" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Boron</t>
         </is>
@@ -9518,111 +9586,111 @@
         </is>
       </c>
       <c r="V43" s="18" t="n"/>
-      <c r="W43" s="28" t="inlineStr">
+      <c r="W43" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X43" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y43" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z43" s="28" t="inlineStr">
+      <c r="X43" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y43" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z43" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA43" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB43" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC43" s="28" t="inlineStr">
+      <c r="AA43" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB43" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC43" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD43" s="28" t="inlineStr">
+      <c r="AD43" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE43" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF43" s="28" t="inlineStr">
+      <c r="AE43" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF43" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG43" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH43" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI43" s="28" t="inlineStr">
+      <c r="AG43" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH43" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI43" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ43" s="28">
+      <c r="AJ43" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK43" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL43" s="28" t="inlineStr">
+      <c r="AK43" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL43" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM43" s="28">
+      <c r="AM43" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN43" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO43" s="28" t="inlineStr">
+      <c r="AN43" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO43" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP43" s="28" t="inlineStr">
+      <c r="AP43" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ43" s="28" t="inlineStr">
+      <c r="AQ43" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="19">
+    <row r="44" ht="14.9" customHeight="1" s="19">
       <c r="A44" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B44,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -9661,7 +9729,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I44" s="17" t="inlineStr">
+      <c r="I44" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Magnesium_oxide</t>
         </is>
@@ -9726,112 +9794,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V44" s="18" t="n"/>
-      <c r="W44" s="28" t="inlineStr">
+      <c r="V44" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/dd70763b-fb75-4d80-a469-03e3c9cee9cb</t>
+        </is>
+      </c>
+      <c r="W44" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X44" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y44" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z44" s="28" t="inlineStr">
+      <c r="X44" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y44" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z44" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA44" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB44" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC44" s="28" t="inlineStr">
+      <c r="AA44" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB44" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC44" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD44" s="28" t="inlineStr">
+      <c r="AD44" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE44" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF44" s="28" t="inlineStr">
+      <c r="AE44" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF44" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG44" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH44" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI44" s="28" t="inlineStr">
+      <c r="AG44" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH44" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI44" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ44" s="28">
+      <c r="AJ44" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK44" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL44" s="28" t="inlineStr">
+      <c r="AK44" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL44" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM44" s="28">
+      <c r="AM44" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN44" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO44" s="28" t="inlineStr">
+      <c r="AN44" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO44" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP44" s="28" t="inlineStr">
+      <c r="AP44" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ44" s="28" t="inlineStr">
+      <c r="AQ44" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="19">
+    <row r="45" ht="14.9" customHeight="1" s="19">
       <c r="A45" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B45,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -9870,7 +9942,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I45" s="17" t="inlineStr">
+      <c r="I45" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Basalt</t>
         </is>
@@ -9935,112 +10007,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V45" s="18" t="n"/>
-      <c r="W45" s="28" t="inlineStr">
+      <c r="V45" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/2bd67269-cd3a-4ca5-adae-0c030d7e76ed</t>
+        </is>
+      </c>
+      <c r="W45" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X45" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y45" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z45" s="28" t="inlineStr">
+      <c r="X45" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y45" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z45" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA45" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB45" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC45" s="28" t="inlineStr">
+      <c r="AA45" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB45" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC45" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD45" s="28" t="inlineStr">
+      <c r="AD45" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE45" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF45" s="28" t="inlineStr">
+      <c r="AE45" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF45" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG45" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH45" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI45" s="28" t="inlineStr">
+      <c r="AG45" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH45" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI45" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ45" s="28">
+      <c r="AJ45" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK45" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL45" s="28" t="inlineStr">
+      <c r="AK45" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL45" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM45" s="28">
+      <c r="AM45" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN45" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO45" s="28" t="inlineStr">
+      <c r="AN45" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO45" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP45" s="28" t="inlineStr">
+      <c r="AP45" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ45" s="28" t="inlineStr">
+      <c r="AQ45" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="19">
+    <row r="46" ht="14.9" customHeight="1" s="19">
       <c r="A46" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B46,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -10079,7 +10155,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I46" s="17" t="inlineStr">
+      <c r="I46" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Zeolite</t>
         </is>
@@ -10144,112 +10220,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V46" s="18" t="n"/>
-      <c r="W46" s="28" t="inlineStr">
+      <c r="V46" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/dc3a55d3-cdb0-43a5-8de3-c51f045757d0</t>
+        </is>
+      </c>
+      <c r="W46" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X46" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y46" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z46" s="28" t="inlineStr">
+      <c r="X46" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y46" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z46" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA46" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB46" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC46" s="28" t="inlineStr">
+      <c r="AA46" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB46" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC46" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD46" s="28" t="inlineStr">
+      <c r="AD46" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE46" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF46" s="28" t="inlineStr">
+      <c r="AE46" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF46" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG46" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH46" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI46" s="28" t="inlineStr">
+      <c r="AG46" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH46" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI46" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ46" s="28">
+      <c r="AJ46" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK46" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL46" s="28" t="inlineStr">
+      <c r="AK46" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL46" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM46" s="28">
+      <c r="AM46" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN46" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO46" s="28" t="inlineStr">
+      <c r="AN46" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO46" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP46" s="28" t="inlineStr">
+      <c r="AP46" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ46" s="28" t="inlineStr">
+      <c r="AQ46" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="19">
+    <row r="47" ht="14.9" customHeight="1" s="19">
       <c r="A47" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B47,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -10288,7 +10368,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I47" s="17" t="inlineStr">
+      <c r="I47" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sodium_bicarbonate</t>
         </is>
@@ -10353,112 +10433,116 @@
           <t>-</t>
         </is>
       </c>
-      <c r="V47" s="18" t="n"/>
-      <c r="W47" s="28" t="inlineStr">
+      <c r="V47" s="18" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/b9516ad1-d0ab-5e5d-9be4-2efe48bb82b4</t>
+        </is>
+      </c>
+      <c r="W47" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X47" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y47" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z47" s="28" t="inlineStr">
+      <c r="X47" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y47" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z47" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA47" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB47" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC47" s="28" t="inlineStr">
+      <c r="AA47" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB47" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC47" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD47" s="28" t="inlineStr">
+      <c r="AD47" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE47" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF47" s="28" t="inlineStr">
+      <c r="AE47" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF47" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG47" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH47" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI47" s="28" t="inlineStr">
+      <c r="AG47" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH47" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI47" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ47" s="28">
+      <c r="AJ47" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK47" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL47" s="28" t="inlineStr">
+      <c r="AK47" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL47" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM47" s="28">
+      <c r="AM47" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN47" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO47" s="28" t="inlineStr">
+      <c r="AN47" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO47" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP47" s="28" t="inlineStr">
+      <c r="AP47" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ47" s="28" t="inlineStr">
+      <c r="AQ47" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="19">
+    <row r="48" ht="14.9" customHeight="1" s="19">
       <c r="A48" s="26">
         <f>CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B48,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v/>
@@ -10492,12 +10576,12 @@
           <t>An inorganic compound produced on a large scale as a component of fertilizers and food additives.</t>
         </is>
       </c>
-      <c r="H48" s="17" t="inlineStr">
+      <c r="H48" s="28" t="inlineStr">
         <is>
           <t>https://agrovoc.fao.org/browse/agrovoc/en/page/c_cb959a9e</t>
         </is>
       </c>
-      <c r="I48" s="17" t="inlineStr">
+      <c r="I48" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Manganese(II)_oxide</t>
         </is>
@@ -10563,105 +10647,105 @@
         </is>
       </c>
       <c r="V48" s="18" t="n"/>
-      <c r="W48" s="28" t="inlineStr">
+      <c r="W48" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X48" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y48" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z48" s="28" t="inlineStr">
+      <c r="X48" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y48" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z48" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA48" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB48" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC48" s="28" t="inlineStr">
+      <c r="AA48" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB48" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC48" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD48" s="28" t="inlineStr">
+      <c r="AD48" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE48" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF48" s="28" t="inlineStr">
+      <c r="AE48" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF48" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG48" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH48" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI48" s="28" t="inlineStr">
+      <c r="AG48" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH48" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI48" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ48" s="28">
+      <c r="AJ48" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK48" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL48" s="28" t="inlineStr">
+      <c r="AK48" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL48" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM48" s="28">
+      <c r="AM48" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN48" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO48" s="28" t="inlineStr">
+      <c r="AN48" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO48" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP48" s="28" t="inlineStr">
+      <c r="AP48" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ48" s="28" t="inlineStr">
+      <c r="AQ48" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -10686,7 +10770,7 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="E49" s="32" t="inlineStr">
+      <c r="E49" s="33" t="inlineStr">
         <is>
           <t>Bio plug; BioPlug</t>
         </is>
@@ -10772,105 +10856,105 @@
         </is>
       </c>
       <c r="V49" s="18" t="n"/>
-      <c r="W49" s="28" t="inlineStr">
+      <c r="W49" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X49" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y49" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z49" s="28" t="inlineStr">
+      <c r="X49" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y49" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z49" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA49" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB49" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC49" s="28" t="inlineStr">
+      <c r="AA49" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB49" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC49" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD49" s="28" t="inlineStr">
+      <c r="AD49" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE49" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF49" s="28" t="inlineStr">
+      <c r="AE49" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF49" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG49" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH49" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI49" s="28" t="inlineStr">
+      <c r="AG49" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH49" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI49" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ49" s="28">
+      <c r="AJ49" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK49" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL49" s="28" t="inlineStr">
+      <c r="AK49" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL49" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM49" s="28">
+      <c r="AM49" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN49" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO49" s="28" t="inlineStr">
+      <c r="AN49" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO49" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP49" s="28" t="inlineStr">
+      <c r="AP49" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ49" s="28" t="inlineStr">
+      <c r="AQ49" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -10895,7 +10979,7 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="E50" s="32" t="inlineStr">
+      <c r="E50" s="33" t="inlineStr">
         <is>
           <t>Growth promoter; Plant hormone, Phytohormone; Growth regulators; Plant growth regulator; PGRs</t>
         </is>
@@ -10915,7 +10999,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I50" s="17" t="inlineStr">
+      <c r="I50" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Plant_hormone</t>
         </is>
@@ -10981,105 +11065,105 @@
         </is>
       </c>
       <c r="V50" s="18" t="n"/>
-      <c r="W50" s="28" t="inlineStr">
+      <c r="W50" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X50" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y50" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z50" s="28" t="inlineStr">
+      <c r="X50" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y50" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z50" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA50" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB50" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC50" s="28" t="inlineStr">
+      <c r="AA50" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB50" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC50" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD50" s="28" t="inlineStr">
+      <c r="AD50" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE50" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF50" s="28" t="inlineStr">
+      <c r="AE50" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF50" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG50" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH50" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI50" s="28" t="inlineStr">
+      <c r="AG50" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH50" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI50" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ50" s="28">
+      <c r="AJ50" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK50" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL50" s="28" t="inlineStr">
+      <c r="AK50" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL50" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM50" s="28">
+      <c r="AM50" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN50" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO50" s="28" t="inlineStr">
+      <c r="AN50" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO50" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP50" s="28" t="inlineStr">
+      <c r="AP50" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ50" s="28" t="inlineStr">
+      <c r="AQ50" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -11190,105 +11274,105 @@
         </is>
       </c>
       <c r="V51" s="18" t="n"/>
-      <c r="W51" s="28" t="inlineStr">
+      <c r="W51" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X51" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y51" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z51" s="28" t="inlineStr">
+      <c r="X51" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y51" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z51" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA51" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB51" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC51" s="28" t="inlineStr">
+      <c r="AA51" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB51" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC51" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD51" s="28" t="inlineStr">
+      <c r="AD51" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE51" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF51" s="28" t="inlineStr">
+      <c r="AE51" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF51" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG51" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH51" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI51" s="28" t="inlineStr">
+      <c r="AG51" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH51" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI51" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ51" s="28">
+      <c r="AJ51" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK51" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL51" s="28" t="inlineStr">
+      <c r="AK51" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL51" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM51" s="28">
+      <c r="AM51" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN51" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO51" s="28" t="inlineStr">
+      <c r="AN51" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO51" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP51" s="28" t="inlineStr">
+      <c r="AP51" s="29" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
-      <c r="AQ51" s="28" t="inlineStr">
+      <c r="AQ51" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
@@ -11333,7 +11417,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I52" s="17" t="inlineStr">
+      <c r="I52" s="28" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Used_coffee_grounds</t>
         </is>
@@ -11386,382 +11470,112 @@
           <t>Johnson et al. (2022) https://doi.org/10.3389/fceng.2022.838605</t>
         </is>
       </c>
-      <c r="W52" s="28" t="inlineStr">
+      <c r="W52" s="29" t="inlineStr">
         <is>
           <t>CO2_lime_emissions_factor</t>
         </is>
       </c>
-      <c r="X52" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y52" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="Z52" s="28" t="inlineStr">
+      <c r="X52" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y52" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="Z52" s="29" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
         </is>
       </c>
-      <c r="AA52" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB52" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AC52" s="28" t="inlineStr">
+      <c r="AA52" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB52" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AC52" s="29" t="inlineStr">
         <is>
           <t>inputGroup</t>
         </is>
       </c>
-      <c r="AD52" s="28" t="inlineStr">
+      <c r="AD52" s="29" t="inlineStr">
         <is>
           <t>Other soil amendments</t>
         </is>
       </c>
-      <c r="AE52" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AF52" s="28" t="inlineStr">
+      <c r="AE52" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AF52" s="29" t="inlineStr">
         <is>
           <t>sensitivityAlternativeTerms</t>
         </is>
       </c>
-      <c r="AG52" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH52" s="28" t="inlineStr">
-        <is>
-          <t>not required</t>
-        </is>
-      </c>
-      <c r="AI52" s="28" t="inlineStr">
+      <c r="AG52" s="29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH52" s="29" t="inlineStr">
+        <is>
+          <t>not required</t>
+        </is>
+      </c>
+      <c r="AI52" s="29" t="inlineStr">
         <is>
           <t>skipAggregation</t>
         </is>
       </c>
-      <c r="AJ52" s="28">
+      <c r="AJ52" s="29">
         <f>TRUE()</f>
         <v/>
       </c>
-      <c r="AK52" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AL52" s="28" t="inlineStr">
+      <c r="AK52" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AL52" s="29" t="inlineStr">
         <is>
           <t>generateImpactAssessment</t>
         </is>
       </c>
-      <c r="AM52" s="28">
+      <c r="AM52" s="29">
         <f>FALSE()</f>
         <v/>
       </c>
-      <c r="AN52" s="28" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="AO52" s="28" t="inlineStr">
+      <c r="AN52" s="29" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="AO52" s="29" t="inlineStr">
         <is>
           <t>PRACTICE_INCREASING_C_INPUT</t>
         </is>
       </c>
-      <c r="AP52" s="28" t="inlineStr">
+      <c r="AP52" s="29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="AQ52" s="28" t="inlineStr">
+      <c r="AQ52" s="29" t="inlineStr">
         <is>
           <t>complete</t>
         </is>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323" ht="13.5" customHeight="1" s="19">
-      <c r="W323" s="17" t="n"/>
+    <row r="323" ht="13.8" customHeight="1" s="19">
+      <c r="W323" s="28" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ52"/>
